--- a/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
+++ b/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
@@ -11,21 +11,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>string col</t>
-  </si>
-  <si>
-    <t>1 int col</t>
-  </si>
-  <si>
-    <t>_time_col</t>
-  </si>
-  <si>
-    <t>date col</t>
-  </si>
-  <si>
-    <t>bool col</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Staff ID</t>
+  </si>
+  <si>
+    <t>Staff First Name</t>
+  </si>
+  <si>
+    <t>Staff Last Name</t>
+  </si>
+  <si>
+    <t>Offender ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address Line1</t>
+  </si>
+  <si>
+    <t>Address Line2</t>
+  </si>
+  <si>
+    <t>Address City</t>
+  </si>
+  <si>
+    <t>Address State</t>
+  </si>
+  <si>
+    <t>Address Zip</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Assignment Type</t>
+  </si>
+  <si>
+    <t>Case Type</t>
+  </si>
+  <si>
+    <t>Plan Start Date</t>
+  </si>
+  <si>
+    <t>Supervision Level</t>
+  </si>
+  <si>
+    <t>Prior Supervision Level</t>
+  </si>
+  <si>
+    <t>EXP Date</t>
+  </si>
+  <si>
+    <t>180 Day Prior EXP</t>
+  </si>
+  <si>
+    <t>Freq of FAC Contact-GT 1</t>
+  </si>
+  <si>
+    <t>FAC Note 3</t>
+  </si>
+  <si>
+    <t>FAC Note 2</t>
+  </si>
+  <si>
+    <t>FAC Note 1</t>
+  </si>
+  <si>
+    <t>FAC Note Due</t>
+  </si>
+  <si>
+    <t>Last FAC Note</t>
+  </si>
+  <si>
+    <t>Last FAC Note Type</t>
+  </si>
+  <si>
+    <t>Last FACV Date</t>
+  </si>
+  <si>
+    <t>Last FAC1 Date</t>
+  </si>
+  <si>
+    <t>Last FAC2 Date</t>
+  </si>
+  <si>
+    <t>Last HOMF Note</t>
+  </si>
+  <si>
+    <t>Last HOMF Time</t>
+  </si>
+  <si>
+    <t>Last AHOM Note</t>
+  </si>
+  <si>
+    <t>Last HOMC Note</t>
+  </si>
+  <si>
+    <t>Last HOMV Note</t>
+  </si>
+  <si>
+    <t>Last HV Type</t>
+  </si>
+  <si>
+    <t>HV Note Due</t>
+  </si>
+  <si>
+    <t>Last RIS Note</t>
+  </si>
+  <si>
+    <t>Last CCRI Note</t>
+  </si>
+  <si>
+    <t>Last CCR Date</t>
+  </si>
+  <si>
+    <t>Last Strong R</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Alcohol/Drug Needs</t>
+  </si>
+  <si>
+    <t>Mental Health Needs</t>
+  </si>
+  <si>
+    <t>RIS Note Due</t>
+  </si>
+  <si>
+    <t>DRU Note Due</t>
+  </si>
+  <si>
+    <t>Last Sanctions Date</t>
+  </si>
+  <si>
+    <t>Last Sanctions Type</t>
+  </si>
+  <si>
+    <t>Last DRU Note</t>
+  </si>
+  <si>
+    <t>Last DRU Type</t>
+  </si>
+  <si>
+    <t>Last DRUL Note</t>
+  </si>
+  <si>
+    <t>Last EMP Note</t>
+  </si>
+  <si>
+    <t>Last EMP Type(s)</t>
+  </si>
+  <si>
+    <t>EMP Note Due</t>
+  </si>
+  <si>
+    <t>Last XEMP Date</t>
+  </si>
+  <si>
+    <t>Last EMPT Date</t>
+  </si>
+  <si>
+    <t>Last OCP Note</t>
+  </si>
+  <si>
+    <t>OCP Note Due</t>
+  </si>
+  <si>
+    <t>Last SOT Note</t>
+  </si>
+  <si>
+    <t>SOT Note Due</t>
+  </si>
+  <si>
+    <t>Last SOTT Date</t>
+  </si>
+  <si>
+    <t>Last RSS Note</t>
+  </si>
+  <si>
+    <t>Last RSS Type</t>
+  </si>
+  <si>
+    <t>RSS Note Due</t>
+  </si>
+  <si>
+    <t>Last FEE Note</t>
+  </si>
+  <si>
+    <t>FEE Note Due</t>
+  </si>
+  <si>
+    <t>Last ARR Note</t>
+  </si>
+  <si>
+    <t>Last ARR Type</t>
+  </si>
+  <si>
+    <t>ARR Note Due</t>
+  </si>
+  <si>
+    <t>Last SPE Note</t>
+  </si>
+  <si>
+    <t>SPE Note Due</t>
+  </si>
+  <si>
+    <t>Last SPET Date</t>
+  </si>
+  <si>
+    <t>Last ZZZI Date</t>
+  </si>
+  <si>
+    <t>ZZZI GT 45 days</t>
   </si>
   <si>
     <t>val a</t>
@@ -41,6 +254,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>LIFE</t>
   </si>
 </sst>
 </file>
@@ -50,15 +269,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,20 +302,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -305,7 +535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -323,45 +553,271 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
+      <c r="A2" s="2"/>
+      <c r="F2" s="2">
         <v>2.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="U2" s="3">
+        <v>44562.0</v>
+      </c>
+      <c r="AH2" s="4">
         <v>0.20555555555555555</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44562.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2">
         <v>3.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="AH3" s="5">
         <v>0.5242592592592593</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+      <c r="BX3" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2">
         <v>10.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="U4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="3">
+        <v>523456.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="U6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
+++ b/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Region</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Freq of FAC Contact-GT 1</t>
   </si>
   <si>
+    <t>FAC Note 4</t>
+  </si>
+  <si>
     <t>FAC Note 3</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Last AHOM Note</t>
   </si>
   <si>
+    <t>Number of AHOM</t>
+  </si>
+  <si>
     <t>Last HOMC Note</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Last FSWR Date</t>
   </si>
   <si>
     <t>Alcohol/Drug Needs</t>
@@ -766,6 +775,15 @@
       <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
@@ -775,41 +793,41 @@
       <c r="U2" s="3">
         <v>44562.0</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AI2" s="4">
         <v>0.20555555555555555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2">
         <v>3.0</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AI3" s="5">
         <v>0.5242592592592593</v>
       </c>
-      <c r="BX3" s="2" t="s">
-        <v>77</v>
+      <c r="CA3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2">
         <v>10.0</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U5" s="3">
         <v>523456.0</v>
@@ -817,7 +835,7 @@
     </row>
     <row r="6">
       <c r="U6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
+++ b/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Region</t>
   </si>
@@ -145,6 +145,9 @@
     <t>Last CCR Date</t>
   </si>
   <si>
+    <t xml:space="preserve">New Case Start </t>
+  </si>
+  <si>
     <t>Last Strong R</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>Last DRU Type</t>
   </si>
   <si>
+    <t>Number of Drug Screens</t>
+  </si>
+  <si>
     <t>Last DRUL Note</t>
   </si>
   <si>
@@ -248,6 +254,24 @@
   </si>
   <si>
     <t>ZZZI GT 45 days</t>
+  </si>
+  <si>
+    <t>Last ISC Note</t>
+  </si>
+  <si>
+    <t>ISC Note Due</t>
+  </si>
+  <si>
+    <t>Last IOT Note</t>
+  </si>
+  <si>
+    <t>IOT Note Due</t>
+  </si>
+  <si>
+    <t>TRTE2 Date</t>
+  </si>
+  <si>
+    <t>TRTE1 Date</t>
   </si>
   <si>
     <t>val a</t>
@@ -274,27 +298,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,44 +331,87 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,10 +425,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -377,25 +449,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,76 +476,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -484,361 +546,2040 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:CI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="87" width="12.6719" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="12.6719" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" t="s" s="2">
         <v>78</v>
       </c>
+      <c r="CB1" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="F2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>44562.0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0.20555555555555555</v>
-      </c>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="5">
+        <v>44562</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="6">
+        <v>1.205555555555555</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>0.5242592592592593</v>
-      </c>
-      <c r="CA3" s="2" t="s">
-        <v>80</v>
-      </c>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="8">
+        <v>1.524259259259259</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" s="3">
-        <v>523456.0</v>
-      </c>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="5">
+        <v>523456</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
     </row>
-    <row r="6">
-      <c r="U6" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
+++ b/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daminisharma/Documents/GitHub/recidiviz-data/recidiviz/tests/admin_panel/routes/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E52B5-4DCD-2A4D-95A8-BD391E904B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Region</t>
   </si>
@@ -293,37 +302,37 @@
   </si>
   <si>
     <t>LIFE</t>
+  </si>
+  <si>
+    <t>Last JRCR Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -357,39 +366,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,23 +406,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -617,7 +686,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -636,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,9 +956,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -906,7 +981,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -925,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,9 +1247,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1188,7 +1269,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1207,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,295 +1539,309 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CI10"/>
+  <dimension ref="A1:CJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="87" width="12.6719" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="61" width="12.6640625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="89" width="12.6640625" style="1" customWidth="1"/>
+    <col min="90" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s" s="2">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s" s="2">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="2">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s" s="2">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s" s="2">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s" s="2">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s" s="2">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s" s="2">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s" s="2">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s" s="2">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s" s="2">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s" s="2">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s" s="2">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s" s="2">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s" s="2">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s" s="2">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s" s="2">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s" s="2">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s" s="2">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s" s="2">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s" s="2">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s" s="2">
+      <c r="BJ1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s" s="2">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s" s="2">
+      <c r="BM1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s" s="2">
+      <c r="BN1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s" s="2">
+      <c r="BO1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s" s="2">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s" s="2">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s" s="2">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s" s="2">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s" s="2">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s" s="2">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s" s="2">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s" s="2">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s" s="2">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s" s="2">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s" s="2">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s" s="2">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s" s="2">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s" s="2">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s" s="2">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s" s="2">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s" s="2">
+      <c r="CF1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s" s="2">
+      <c r="CG1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s" s="2">
+      <c r="CH1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s" s="2">
+      <c r="CI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s" s="2">
+      <c r="CJ1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1840,9 +1935,10 @@
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="3"/>
@@ -1928,18 +2024,19 @@
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
       <c r="CB3" s="3"/>
-      <c r="CC3" t="s" s="7">
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CD3" s="3"/>
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="3"/>
@@ -1963,7 +2060,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" t="s" s="7">
+      <c r="U4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="V4" s="3"/>
@@ -2025,18 +2122,19 @@
       <c r="BZ4" s="3"/>
       <c r="CA4" s="3"/>
       <c r="CB4" s="3"/>
-      <c r="CC4" t="s" s="7">
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CD4" s="3"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="3"/>
@@ -2127,8 +2225,9 @@
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2149,7 +2248,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" t="s" s="7">
+      <c r="U6" s="7" t="s">
         <v>93</v>
       </c>
       <c r="V6" s="3"/>
@@ -2218,8 +2317,9 @@
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2307,8 +2407,9 @@
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2396,8 +2497,9 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2485,8 +2587,9 @@
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2574,10 +2677,11 @@
       <c r="CG10" s="3"/>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
+++ b/recidiviz/tests/admin_panel/routes/fixtures/file_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daminisharma/Documents/GitHub/recidiviz-data/recidiviz/tests/admin_panel/routes/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E52B5-4DCD-2A4D-95A8-BD391E904B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C46F832-B129-7B49-A31B-43B9E6D4404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Region</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Last JRCR Date</t>
+  </si>
+  <si>
+    <t>Last Fee Payment</t>
+  </si>
+  <si>
+    <t>Current Fee Balance</t>
   </si>
 </sst>
 </file>
@@ -1561,21 +1567,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CJ10"/>
+  <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BX18" sqref="BX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="61" width="12.6640625" style="1" customWidth="1"/>
     <col min="62" max="62" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="89" width="12.6640625" style="1" customWidth="1"/>
-    <col min="90" max="16384" width="12.6640625" style="1"/>
+    <col min="63" max="74" width="12.6640625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="18.1640625" style="1" customWidth="1"/>
+    <col min="76" max="91" width="12.6640625" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1798,50 +1806,56 @@
       <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1936,8 +1950,10 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
     </row>
-    <row r="3" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
@@ -2025,17 +2041,19 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="3"/>
       <c r="CC3" s="3"/>
-      <c r="CD3" s="7" t="s">
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
     </row>
-    <row r="4" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
@@ -2123,17 +2141,19 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="3"/>
       <c r="CC4" s="3"/>
-      <c r="CD4" s="7" t="s">
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
     </row>
-    <row r="5" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
@@ -2226,8 +2246,10 @@
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
     </row>
-    <row r="6" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2318,8 +2340,10 @@
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
     </row>
-    <row r="7" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2408,8 +2432,10 @@
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
     </row>
-    <row r="8" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2498,8 +2524,10 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
     </row>
-    <row r="9" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2588,8 +2616,10 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
     </row>
-    <row r="10" spans="1:88" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:90" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2678,6 +2708,8 @@
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
